--- a/Data/EC/NIT-9015780207.xlsx
+++ b/Data/EC/NIT-9015780207.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7BB5BAD0-0845-44C1-8B91-CB2D3D83D629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C4C23F-A001-46BF-B373-1CC0D8E1163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{488C6488-8D56-4221-BFED-F78AA743016C}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0170F6B0-B550-4120-8E87-7EDA9C1C8176}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047429930</t>
+  </si>
+  <si>
+    <t>JORGE ENRIQUE MUÑIZ ROMERO</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
     <t>1051889093</t>
   </si>
   <si>
@@ -80,55 +89,49 @@
     <t>LUIS MIGUEL TOVAR CASTRO</t>
   </si>
   <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>1047429930</t>
-  </si>
-  <si>
-    <t>JORGE ENRIQUE MUÑIZ ROMERO</t>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
   </si>
   <si>
     <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -542,7 +545,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{479A9B78-60E1-9DE3-FF18-27629A2CB5CF}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B712DC-D8B0-84A1-D55D-BBBF0432A07A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -893,8 +896,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41CEF18C-ABAC-4ABC-B036-FB9C2D2A1440}">
-  <dimension ref="B2:J38"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3054E19A-2A17-4855-9312-7163003A0591}">
+  <dimension ref="B2:J39"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -918,7 +921,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -963,7 +966,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -995,12 +998,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>833040</v>
+        <v>885040</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1011,17 +1014,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F13" s="5">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1048,13 +1051,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>36</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1071,10 +1074,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>20107</v>
+        <v>32933</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1094,10 +1097,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>20107</v>
       </c>
       <c r="G17" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1114,10 +1117,10 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="F18" s="18">
-        <v>32933</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
         <v>1300000</v>
@@ -1131,13 +1134,13 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1154,13 +1157,13 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1177,13 +1180,13 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1200,13 +1203,13 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1223,13 +1226,13 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1246,13 +1249,13 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1269,13 +1272,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1292,13 +1295,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1315,13 +1318,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1338,13 +1341,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1361,13 +1364,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1384,13 +1387,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1407,13 +1410,13 @@
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1426,42 +1429,54 @@
       <c r="J31" s="20"/>
     </row>
     <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D32" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E32" s="22" t="s">
-        <v>30</v>
-      </c>
-      <c r="F32" s="24">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E32" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F32" s="18">
         <v>52000</v>
       </c>
-      <c r="G32" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H32" s="25"/>
-      <c r="I32" s="25"/>
-      <c r="J32" s="26"/>
-    </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="32" t="s">
-        <v>40</v>
-      </c>
-      <c r="C37" s="32"/>
-      <c r="H37" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="1"/>
-      <c r="J37" s="1"/>
+      <c r="G32" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="22" t="s">
+        <v>11</v>
+      </c>
+      <c r="F33" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G33" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="25"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="26"/>
     </row>
     <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="32" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="C38" s="32"/>
       <c r="H38" s="1" t="s">
@@ -1470,12 +1485,23 @@
       <c r="I38" s="1"/>
       <c r="J38" s="1"/>
     </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="32" t="s">
+        <v>40</v>
+      </c>
+      <c r="C39" s="32"/>
+      <c r="H39" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="I39" s="1"/>
+      <c r="J39" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B39:C39"/>
     <mergeCell ref="B38:C38"/>
-    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="H39:J39"/>
     <mergeCell ref="H38:J38"/>
-    <mergeCell ref="H37:J37"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9015780207.xlsx
+++ b/Data/EC/NIT-9015780207.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{55C4C23F-A001-46BF-B373-1CC0D8E1163C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7C80D0F3-52C9-4CB6-8BAB-B1A65259D58C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{0170F6B0-B550-4120-8E87-7EDA9C1C8176}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{057D9916-60DC-4F34-B558-86BFE71A23E3}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="44">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,6 +65,15 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1051889093</t>
+  </si>
+  <si>
+    <t>CRISTIAN JOSE CARABALLO ALVARADO</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
     <t>1047429930</t>
   </si>
   <si>
@@ -74,64 +83,58 @@
     <t>2404</t>
   </si>
   <si>
-    <t>1051889093</t>
-  </si>
-  <si>
-    <t>CRISTIAN JOSE CARABALLO ALVARADO</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
     <t>1051888961</t>
   </si>
   <si>
     <t>LUIS MIGUEL TOVAR CASTRO</t>
   </si>
   <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -230,7 +233,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -243,9 +248,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -445,23 +448,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -489,10 +492,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -545,7 +548,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15B712DC-D8B0-84A1-D55D-BBBF0432A07A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{875745B1-D814-B052-EB67-9B0DA8A5030A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -896,8 +899,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3054E19A-2A17-4855-9312-7163003A0591}">
-  <dimension ref="B2:J39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{48C3DD37-606C-4744-A669-304BFDD762C0}">
+  <dimension ref="B2:J40"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -921,7 +924,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -966,7 +969,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -998,12 +1001,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>885040</v>
+        <v>937040</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1014,17 +1017,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C13" s="5">
         <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F13" s="5">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1051,13 +1054,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>39</v>
+      </c>
+      <c r="I15" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="I15" s="13" t="s">
-        <v>37</v>
-      </c>
       <c r="J15" s="14" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1074,10 +1077,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>32933</v>
+        <v>20107</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1097,10 +1100,10 @@
         <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>20107</v>
+        <v>32933</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1300000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1117,7 +1120,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F18" s="18">
         <v>52000</v>
@@ -1140,7 +1143,7 @@
         <v>16</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
@@ -1163,7 +1166,7 @@
         <v>16</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
@@ -1186,7 +1189,7 @@
         <v>16</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
@@ -1209,7 +1212,7 @@
         <v>16</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
@@ -1232,7 +1235,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
@@ -1255,7 +1258,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
@@ -1278,7 +1281,7 @@
         <v>16</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1301,7 +1304,7 @@
         <v>16</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1324,7 +1327,7 @@
         <v>16</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1347,7 +1350,7 @@
         <v>16</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1370,7 +1373,7 @@
         <v>16</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1393,7 +1396,7 @@
         <v>16</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1416,7 +1419,7 @@
         <v>16</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F31" s="18">
         <v>52000</v>
@@ -1439,7 +1442,7 @@
         <v>16</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F32" s="18">
         <v>52000</v>
@@ -1452,42 +1455,54 @@
       <c r="J32" s="20"/>
     </row>
     <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="D33" s="23" t="s">
-        <v>16</v>
-      </c>
-      <c r="E33" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F33" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G33" s="24">
-        <v>1300000</v>
-      </c>
-      <c r="H33" s="25"/>
-      <c r="I33" s="25"/>
-      <c r="J33" s="26"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="32" t="s">
-        <v>41</v>
-      </c>
-      <c r="C38" s="32"/>
-      <c r="H38" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="I38" s="1"/>
-      <c r="J38" s="1"/>
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="F33" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>16</v>
+      </c>
+      <c r="E34" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="F34" s="24">
+        <v>52000</v>
+      </c>
+      <c r="G34" s="24">
+        <v>1300000</v>
+      </c>
+      <c r="H34" s="25"/>
+      <c r="I34" s="25"/>
+      <c r="J34" s="26"/>
     </row>
     <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="32" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="C39" s="32"/>
       <c r="H39" s="1" t="s">
@@ -1496,12 +1511,23 @@
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
     </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="32" t="s">
+        <v>41</v>
+      </c>
+      <c r="C40" s="32"/>
+      <c r="H40" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="I40" s="1"/>
+      <c r="J40" s="1"/>
+    </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="B40:C40"/>
     <mergeCell ref="B39:C39"/>
-    <mergeCell ref="B38:C38"/>
+    <mergeCell ref="H40:J40"/>
     <mergeCell ref="H39:J39"/>
-    <mergeCell ref="H38:J38"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
